--- a/xlsx_checker/public/templates/lab3_template.xlsx
+++ b/xlsx_checker/public/templates/lab3_template.xlsx
@@ -37,28 +37,28 @@
     <t>Стоимость</t>
   </si>
   <si>
+    <t>Чайник</t>
+  </si>
+  <si>
+    <t>Телевизор</t>
+  </si>
+  <si>
+    <t>Миксер</t>
+  </si>
+  <si>
     <t>Утюг</t>
   </si>
   <si>
+    <t>Микровоновка</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
     <t>Пылесос</t>
   </si>
   <si>
-    <t>Телевизор</t>
-  </si>
-  <si>
-    <t>Миксер</t>
-  </si>
-  <si>
-    <t>Чайник</t>
-  </si>
-  <si>
     <t>Комбайн</t>
-  </si>
-  <si>
-    <t>Холодильник</t>
-  </si>
-  <si>
-    <t>Микровоновка</t>
   </si>
 </sst>
 </file>
@@ -478,13 +478,13 @@
         <v>7</v>
       </c>
       <c s="4" r="C3" t="n">
-        <v>42602</v>
+        <v>42586</v>
       </c>
       <c s="3" r="D3" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c s="3" r="E3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c s="3" r="F3" t="n"/>
     </row>
@@ -496,13 +496,13 @@
         <v>8</v>
       </c>
       <c s="4" r="C4" t="n">
-        <v>42811</v>
+        <v>42416</v>
       </c>
       <c s="3" r="D4" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c s="3" r="E4" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c s="3" r="F4" t="n"/>
     </row>
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c s="3" r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c s="4" r="C5" t="n">
-        <v>42991</v>
+        <v>41700</v>
       </c>
       <c s="3" r="D5" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c s="3" r="E5" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c s="3" r="F5" t="n"/>
     </row>
@@ -529,16 +529,16 @@
         <v>4</v>
       </c>
       <c s="3" r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c s="4" r="C6" t="n">
-        <v>42950</v>
+        <v>42885</v>
       </c>
       <c s="3" r="D6" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c s="3" r="E6" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c s="3" r="F6" t="n"/>
     </row>
@@ -550,13 +550,13 @@
         <v>10</v>
       </c>
       <c s="4" r="C7" t="n">
-        <v>42885</v>
+        <v>42602</v>
       </c>
       <c s="3" r="D7" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c s="3" r="E7" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c s="3" r="F7" t="n"/>
     </row>
@@ -568,13 +568,13 @@
         <v>11</v>
       </c>
       <c s="4" r="C8" t="n">
-        <v>42809</v>
+        <v>42970</v>
       </c>
       <c s="3" r="D8" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c s="3" r="E8" t="n">
-        <v>1540</v>
+        <v>4500</v>
       </c>
       <c s="3" r="F8" t="n"/>
     </row>
@@ -583,16 +583,16 @@
         <v>7</v>
       </c>
       <c s="3" r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="4" r="C9" t="n">
-        <v>42578</v>
+        <v>42493</v>
       </c>
       <c s="3" r="D9" t="n">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c s="3" r="E9" t="n">
-        <v>1200</v>
+        <v>25000</v>
       </c>
       <c s="3" r="F9" t="n"/>
     </row>
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c s="3" r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c s="4" r="C10" t="n">
-        <v>42935</v>
+        <v>42991</v>
       </c>
       <c s="3" r="D10" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c s="3" r="E10" t="n">
-        <v>7800</v>
+        <v>4500</v>
       </c>
       <c s="3" r="F10" t="n"/>
     </row>
@@ -619,16 +619,16 @@
         <v>9</v>
       </c>
       <c s="3" r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c s="4" r="C11" t="n">
-        <v>42586</v>
+        <v>42950</v>
       </c>
       <c s="3" r="D11" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c s="3" r="E11" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c s="3" r="F11" t="n"/>
     </row>
@@ -640,13 +640,13 @@
         <v>7</v>
       </c>
       <c s="4" r="C12" t="n">
-        <v>42563</v>
+        <v>42809</v>
       </c>
       <c s="3" r="D12" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c s="3" r="E12" t="n">
-        <v>2000</v>
+        <v>1540</v>
       </c>
       <c s="3" r="F12" t="n"/>
     </row>
@@ -655,16 +655,16 @@
         <v>11</v>
       </c>
       <c s="3" r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="4" r="C13" t="n">
-        <v>42493</v>
+        <v>42935</v>
       </c>
       <c s="3" r="D13" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c s="3" r="E13" t="n">
-        <v>25000</v>
+        <v>7800</v>
       </c>
       <c s="3" r="F13" t="n"/>
     </row>
@@ -673,16 +673,16 @@
         <v>12</v>
       </c>
       <c s="3" r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c s="4" r="C14" t="n">
-        <v>42416</v>
+        <v>42949</v>
       </c>
       <c s="3" r="D14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="3" r="E14" t="n">
-        <v>12000</v>
+        <v>2900</v>
       </c>
       <c s="3" r="F14" t="n"/>
     </row>
@@ -691,16 +691,16 @@
         <v>13</v>
       </c>
       <c s="3" r="B15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c s="4" r="C15" t="n">
-        <v>42970</v>
+        <v>42578</v>
       </c>
       <c s="3" r="D15" t="n">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c s="3" r="E15" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c s="3" r="F15" t="n"/>
     </row>
@@ -709,16 +709,16 @@
         <v>14</v>
       </c>
       <c s="3" r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c s="4" r="C16" t="n">
-        <v>41700</v>
+        <v>42563</v>
       </c>
       <c s="3" r="D16" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c s="3" r="E16" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c s="3" r="F16" t="n"/>
     </row>
@@ -727,16 +727,16 @@
         <v>15</v>
       </c>
       <c s="3" r="B17" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c s="4" r="C17" t="n">
-        <v>42949</v>
+        <v>42811</v>
       </c>
       <c s="3" r="D17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c s="3" r="E17" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c s="3" r="F17" t="n"/>
     </row>

--- a/xlsx_checker/public/templates/lab3_template.xlsx
+++ b/xlsx_checker/public/templates/lab3_template.xlsx
@@ -40,25 +40,25 @@
     <t>Чайник</t>
   </si>
   <si>
+    <t>Миксер</t>
+  </si>
+  <si>
+    <t>Микровоновка</t>
+  </si>
+  <si>
+    <t>Утюг</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
+    <t>Комбайн</t>
+  </si>
+  <si>
     <t>Телевизор</t>
   </si>
   <si>
-    <t>Миксер</t>
-  </si>
-  <si>
-    <t>Утюг</t>
-  </si>
-  <si>
-    <t>Микровоновка</t>
-  </si>
-  <si>
-    <t>Холодильник</t>
-  </si>
-  <si>
     <t>Пылесос</t>
-  </si>
-  <si>
-    <t>Комбайн</t>
   </si>
 </sst>
 </file>
@@ -493,16 +493,16 @@
         <v>2</v>
       </c>
       <c s="3" r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c s="4" r="C4" t="n">
-        <v>42416</v>
+        <v>42809</v>
       </c>
       <c s="3" r="D4" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c s="3" r="E4" t="n">
-        <v>12000</v>
+        <v>1540</v>
       </c>
       <c s="3" r="F4" t="n"/>
     </row>
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c s="4" r="C5" t="n">
-        <v>41700</v>
+        <v>42885</v>
       </c>
       <c s="3" r="D5" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c s="3" r="E5" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c s="3" r="F5" t="n"/>
     </row>
@@ -532,13 +532,13 @@
         <v>9</v>
       </c>
       <c s="4" r="C6" t="n">
-        <v>42885</v>
+        <v>42970</v>
       </c>
       <c s="3" r="D6" t="n">
         <v>38</v>
       </c>
       <c s="3" r="E6" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c s="3" r="F6" t="n"/>
     </row>
@@ -547,16 +547,16 @@
         <v>5</v>
       </c>
       <c s="3" r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c s="4" r="C7" t="n">
-        <v>42602</v>
+        <v>42578</v>
       </c>
       <c s="3" r="D7" t="n">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c s="3" r="E7" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c s="3" r="F7" t="n"/>
     </row>
@@ -565,16 +565,16 @@
         <v>6</v>
       </c>
       <c s="3" r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c s="4" r="C8" t="n">
-        <v>42970</v>
+        <v>42563</v>
       </c>
       <c s="3" r="D8" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c s="3" r="E8" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c s="3" r="F8" t="n"/>
     </row>
@@ -583,16 +583,16 @@
         <v>7</v>
       </c>
       <c s="3" r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c s="4" r="C9" t="n">
-        <v>42493</v>
+        <v>42602</v>
       </c>
       <c s="3" r="D9" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c s="3" r="E9" t="n">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c s="3" r="F9" t="n"/>
     </row>
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c s="3" r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="4" r="C10" t="n">
-        <v>42991</v>
+        <v>42949</v>
       </c>
       <c s="3" r="D10" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c s="3" r="E10" t="n">
-        <v>4500</v>
+        <v>2900</v>
       </c>
       <c s="3" r="F10" t="n"/>
     </row>
@@ -619,16 +619,16 @@
         <v>9</v>
       </c>
       <c s="3" r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c s="4" r="C11" t="n">
-        <v>42950</v>
+        <v>42493</v>
       </c>
       <c s="3" r="D11" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c s="3" r="E11" t="n">
-        <v>1500</v>
+        <v>25000</v>
       </c>
       <c s="3" r="F11" t="n"/>
     </row>
@@ -637,16 +637,16 @@
         <v>10</v>
       </c>
       <c s="3" r="B12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c s="4" r="C12" t="n">
-        <v>42809</v>
+        <v>42935</v>
       </c>
       <c s="3" r="D12" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c s="3" r="E12" t="n">
-        <v>1540</v>
+        <v>7800</v>
       </c>
       <c s="3" r="F12" t="n"/>
     </row>
@@ -655,16 +655,16 @@
         <v>11</v>
       </c>
       <c s="3" r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c s="4" r="C13" t="n">
-        <v>42935</v>
+        <v>41700</v>
       </c>
       <c s="3" r="D13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c s="3" r="E13" t="n">
-        <v>7800</v>
+        <v>6000</v>
       </c>
       <c s="3" r="F13" t="n"/>
     </row>
@@ -673,16 +673,16 @@
         <v>12</v>
       </c>
       <c s="3" r="B14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c s="4" r="C14" t="n">
-        <v>42949</v>
+        <v>42811</v>
       </c>
       <c s="3" r="D14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c s="3" r="E14" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c s="3" r="F14" t="n"/>
     </row>
@@ -691,16 +691,16 @@
         <v>13</v>
       </c>
       <c s="3" r="B15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c s="4" r="C15" t="n">
-        <v>42578</v>
+        <v>42416</v>
       </c>
       <c s="3" r="D15" t="n">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c s="3" r="E15" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c s="3" r="F15" t="n"/>
     </row>
@@ -709,16 +709,16 @@
         <v>14</v>
       </c>
       <c s="3" r="B16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c s="4" r="C16" t="n">
-        <v>42563</v>
+        <v>42950</v>
       </c>
       <c s="3" r="D16" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c s="3" r="E16" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c s="3" r="F16" t="n"/>
     </row>
@@ -730,13 +730,13 @@
         <v>13</v>
       </c>
       <c s="4" r="C17" t="n">
-        <v>42811</v>
+        <v>42991</v>
       </c>
       <c s="3" r="D17" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c s="3" r="E17" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c s="3" r="F17" t="n"/>
     </row>

--- a/xlsx_checker/public/templates/lab3_template.xlsx
+++ b/xlsx_checker/public/templates/lab3_template.xlsx
@@ -37,28 +37,28 @@
     <t>Стоимость</t>
   </si>
   <si>
+    <t>Утюг</t>
+  </si>
+  <si>
+    <t>Телевизор</t>
+  </si>
+  <si>
+    <t>Микровоновка</t>
+  </si>
+  <si>
+    <t>Пылесос</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
     <t>Чайник</t>
   </si>
   <si>
+    <t>Комбайн</t>
+  </si>
+  <si>
     <t>Миксер</t>
-  </si>
-  <si>
-    <t>Микровоновка</t>
-  </si>
-  <si>
-    <t>Утюг</t>
-  </si>
-  <si>
-    <t>Холодильник</t>
-  </si>
-  <si>
-    <t>Комбайн</t>
-  </si>
-  <si>
-    <t>Телевизор</t>
-  </si>
-  <si>
-    <t>Пылесос</t>
   </si>
 </sst>
 </file>
@@ -478,13 +478,13 @@
         <v>7</v>
       </c>
       <c s="4" r="C3" t="n">
-        <v>42586</v>
+        <v>42949</v>
       </c>
       <c s="3" r="D3" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c s="3" r="E3" t="n">
-        <v>500</v>
+        <v>2900</v>
       </c>
       <c s="3" r="F3" t="n"/>
     </row>
@@ -493,16 +493,16 @@
         <v>2</v>
       </c>
       <c s="3" r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="4" r="C4" t="n">
-        <v>42809</v>
+        <v>42991</v>
       </c>
       <c s="3" r="D4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c s="3" r="E4" t="n">
-        <v>1540</v>
+        <v>4500</v>
       </c>
       <c s="3" r="F4" t="n"/>
     </row>
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c s="3" r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c s="4" r="C5" t="n">
-        <v>42885</v>
+        <v>42970</v>
       </c>
       <c s="3" r="D5" t="n">
         <v>38</v>
       </c>
       <c s="3" r="E5" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c s="3" r="F5" t="n"/>
     </row>
@@ -529,16 +529,16 @@
         <v>4</v>
       </c>
       <c s="3" r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c s="4" r="C6" t="n">
-        <v>42970</v>
+        <v>42811</v>
       </c>
       <c s="3" r="D6" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c s="3" r="E6" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c s="3" r="F6" t="n"/>
     </row>
@@ -547,16 +547,16 @@
         <v>5</v>
       </c>
       <c s="3" r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c s="4" r="C7" t="n">
-        <v>42578</v>
+        <v>42493</v>
       </c>
       <c s="3" r="D7" t="n">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c s="3" r="E7" t="n">
-        <v>1200</v>
+        <v>25000</v>
       </c>
       <c s="3" r="F7" t="n"/>
     </row>
@@ -565,16 +565,16 @@
         <v>6</v>
       </c>
       <c s="3" r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c s="4" r="C8" t="n">
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c s="3" r="D8" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c s="3" r="E8" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c s="3" r="F8" t="n"/>
     </row>
@@ -583,16 +583,16 @@
         <v>7</v>
       </c>
       <c s="3" r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c s="4" r="C9" t="n">
-        <v>42602</v>
+        <v>42416</v>
       </c>
       <c s="3" r="D9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c s="3" r="E9" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c s="3" r="F9" t="n"/>
     </row>
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c s="3" r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c s="4" r="C10" t="n">
-        <v>42949</v>
+        <v>42563</v>
       </c>
       <c s="3" r="D10" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c s="3" r="E10" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c s="3" r="F10" t="n"/>
     </row>
@@ -619,16 +619,16 @@
         <v>9</v>
       </c>
       <c s="3" r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c s="4" r="C11" t="n">
-        <v>42493</v>
+        <v>42950</v>
       </c>
       <c s="3" r="D11" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c s="3" r="E11" t="n">
-        <v>25000</v>
+        <v>1500</v>
       </c>
       <c s="3" r="F11" t="n"/>
     </row>
@@ -640,13 +640,13 @@
         <v>12</v>
       </c>
       <c s="4" r="C12" t="n">
-        <v>42935</v>
+        <v>42578</v>
       </c>
       <c s="3" r="D12" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c s="3" r="E12" t="n">
-        <v>7800</v>
+        <v>1200</v>
       </c>
       <c s="3" r="F12" t="n"/>
     </row>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c s="4" r="C13" t="n">
-        <v>41700</v>
+        <v>42935</v>
       </c>
       <c s="3" r="D13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c s="3" r="E13" t="n">
-        <v>6000</v>
+        <v>7800</v>
       </c>
       <c s="3" r="F13" t="n"/>
     </row>
@@ -676,10 +676,10 @@
         <v>14</v>
       </c>
       <c s="4" r="C14" t="n">
-        <v>42811</v>
+        <v>42885</v>
       </c>
       <c s="3" r="D14" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c s="3" r="E14" t="n">
         <v>3000</v>
@@ -691,16 +691,16 @@
         <v>13</v>
       </c>
       <c s="3" r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c s="4" r="C15" t="n">
-        <v>42416</v>
+        <v>42809</v>
       </c>
       <c s="3" r="D15" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c s="3" r="E15" t="n">
-        <v>12000</v>
+        <v>1540</v>
       </c>
       <c s="3" r="F15" t="n"/>
     </row>
@@ -709,16 +709,16 @@
         <v>14</v>
       </c>
       <c s="3" r="B16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c s="4" r="C16" t="n">
-        <v>42950</v>
+        <v>42602</v>
       </c>
       <c s="3" r="D16" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c s="3" r="E16" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c s="3" r="F16" t="n"/>
     </row>
@@ -727,16 +727,16 @@
         <v>15</v>
       </c>
       <c s="3" r="B17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c s="4" r="C17" t="n">
-        <v>42991</v>
+        <v>41700</v>
       </c>
       <c s="3" r="D17" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c s="3" r="E17" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c s="3" r="F17" t="n"/>
     </row>
